--- a/user_sheets/output.xlsx
+++ b/user_sheets/output.xlsx
@@ -1,71 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="output" sheetId="1" r:id="rId4"/>
+    <sheet name="output" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="product_data" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="items_general" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>part_number</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>unidade_medida_compra</t>
-  </si>
-  <si>
-    <t>unidade_medida_consumo</t>
-  </si>
-  <si>
-    <t>deposito</t>
-  </si>
-  <si>
-    <t>endereco</t>
-  </si>
-  <si>
-    <t>quantidade</t>
-  </si>
-  <si>
-    <t>quantidade_comprada</t>
-  </si>
-  <si>
-    <t>quantidade_reservada</t>
-  </si>
-  <si>
-    <t>grupo</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="10.0"/>
+      <name val="Arial"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Arial"/>
       <color theme="1"/>
-      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
@@ -75,25 +40,86 @@
     <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -291,51 +317,169 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>part_number</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>unidade_medida_compra</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>unidade_medida_consumo</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>deposito</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>endereco</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>quantidade</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>quantidade_comprada</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>quantidade_reservada</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>grupo</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Nome do Produto</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>Código</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>Revisão</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>Descrição</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ID Item</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Nome Item</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Tipo</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Localização</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/user_sheets/output.xlsx
+++ b/user_sheets/output.xlsx
@@ -11,14 +11,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="IVw1Un2YXeOK/B9tmJ+6qkv0ZgcDiaDtzg5dYUwHkJQ="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="g29EJPrMEj8Vt4xIvFbgJ7rQuZkkDltneHl1lbkg0kc="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="121">
   <si>
     <t>id</t>
   </si>
@@ -53,6 +53,48 @@
     <t>grupo</t>
   </si>
   <si>
+    <t>quantidade_disponivel</t>
+  </si>
+  <si>
+    <t>estoque_minimo</t>
+  </si>
+  <si>
+    <t>estoque_maximo</t>
+  </si>
+  <si>
+    <t>ponto_de_pedido</t>
+  </si>
+  <si>
+    <t>lead_time_reposicao_dias</t>
+  </si>
+  <si>
+    <t>custo_unitario_medio</t>
+  </si>
+  <si>
+    <t>valor_total_estoque</t>
+  </si>
+  <si>
+    <t>tipo_item</t>
+  </si>
+  <si>
+    <t>fornecedor_principal_id</t>
+  </si>
+  <si>
+    <t>data_ultima_compra</t>
+  </si>
+  <si>
+    <t>data_ultima_saida</t>
+  </si>
+  <si>
+    <t>status_item</t>
+  </si>
+  <si>
+    <t>codigo_barras</t>
+  </si>
+  <si>
+    <t>data_validade</t>
+  </si>
+  <si>
     <t>Chapa de Aço Carbono 1/2"</t>
   </si>
   <si>
@@ -68,6 +110,18 @@
     <t>Materiais Brutos</t>
   </si>
   <si>
+    <t>2.53</t>
+  </si>
+  <si>
+    <t>11385.00</t>
+  </si>
+  <si>
+    <t>Materia Prima</t>
+  </si>
+  <si>
+    <t>Ativo</t>
+  </si>
+  <si>
     <t>Motor Diesel Cummins X20</t>
   </si>
   <si>
@@ -83,6 +137,15 @@
     <t>Componentes Motores</t>
   </si>
   <si>
+    <t>15750.00</t>
+  </si>
+  <si>
+    <t>126000.00</t>
+  </si>
+  <si>
+    <t>Componente</t>
+  </si>
+  <si>
     <t>Cilindro Hidráulico Principal</t>
   </si>
   <si>
@@ -95,6 +158,12 @@
     <t>Componentes Hidráulicos</t>
   </si>
   <si>
+    <t>3325.00</t>
+  </si>
+  <si>
+    <t>73150.00</t>
+  </si>
+  <si>
     <t>Pneu Off-Road 29.5R25</t>
   </si>
   <si>
@@ -107,6 +176,12 @@
     <t>Componentes Rodagem</t>
   </si>
   <si>
+    <t>760.00</t>
+  </si>
+  <si>
+    <t>21280.00</t>
+  </si>
+  <si>
     <t>Cabine Operador Deluxe</t>
   </si>
   <si>
@@ -119,12 +194,27 @@
     <t>Componentes Estruturais</t>
   </si>
   <si>
+    <t>23750.00</t>
+  </si>
+  <si>
+    <t>71250.00</t>
+  </si>
+  <si>
+    <t>Produto Acabado</t>
+  </si>
+  <si>
     <t>Elo de Esteira Reforçado</t>
   </si>
   <si>
     <t>A1-02-05</t>
   </si>
   <si>
+    <t>14.25</t>
+  </si>
+  <si>
+    <t>17100.00</t>
+  </si>
+  <si>
     <t>Chicote Elétrico Principal</t>
   </si>
   <si>
@@ -137,12 +227,24 @@
     <t>Componentes Elétricos</t>
   </si>
   <si>
+    <t>784.00</t>
+  </si>
+  <si>
+    <t>11760.00</t>
+  </si>
+  <si>
     <t>Bomba Hidráulica Rexroth</t>
   </si>
   <si>
     <t>C3-02-02</t>
   </si>
   <si>
+    <t>4275.00</t>
+  </si>
+  <si>
+    <t>76950.00</t>
+  </si>
+  <si>
     <t>Assento Ergonômico Operador</t>
   </si>
   <si>
@@ -152,6 +254,12 @@
     <t>Componentes Diversos</t>
   </si>
   <si>
+    <t>1140.00</t>
+  </si>
+  <si>
+    <t>7980.00</t>
+  </si>
+  <si>
     <t>Tinta Epóxi Amarelo Escavadeira</t>
   </si>
   <si>
@@ -167,6 +275,12 @@
     <t>Materiais Consumo</t>
   </si>
   <si>
+    <t>52.50</t>
+  </si>
+  <si>
+    <t>9450.00</t>
+  </si>
+  <si>
     <t>Parafuso M20x100mm Classe 8.8</t>
   </si>
   <si>
@@ -176,12 +290,24 @@
     <t>Fixadores</t>
   </si>
   <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>40.80</t>
+  </si>
+  <si>
     <t>Radiador de Água do Motor</t>
   </si>
   <si>
     <t>B2-05-04</t>
   </si>
   <si>
+    <t>930.00</t>
+  </si>
+  <si>
+    <t>5580.00</t>
+  </si>
+  <si>
     <t>Filtro de Óleo Hidráulico</t>
   </si>
   <si>
@@ -191,16 +317,40 @@
     <t>G7-01-01</t>
   </si>
   <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>5700.00</t>
+  </si>
+  <si>
     <t>Vidro Temperado Cabine</t>
   </si>
   <si>
     <t>D4-01-04</t>
   </si>
   <si>
+    <t>686.00</t>
+  </si>
+  <si>
+    <t>6174.00</t>
+  </si>
+  <si>
     <t>Emblema da Marca XL-Diggers</t>
   </si>
   <si>
     <t>A1-04-01</t>
+  </si>
+  <si>
+    <t>2.63</t>
+  </si>
+  <si>
+    <t>184.10</t>
+  </si>
+  <si>
+    <t>123.60</t>
+  </si>
+  <si>
+    <t>4326.00</t>
   </si>
   <si>
     <t>ID</t>
@@ -237,6 +387,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="10.0"/>
@@ -268,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -277,12 +430,15 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -514,610 +670,1250 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="str">
-        <f t="shared" ref="A1:K1" si="1">concat(A2,";")</f>
-        <v>id;</v>
-      </c>
-      <c r="B1" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>part_number;</v>
-      </c>
-      <c r="C1" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>description;</v>
-      </c>
-      <c r="D1" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>unidade_medida_compra;</v>
-      </c>
-      <c r="E1" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>unidade_medida_consumo;</v>
-      </c>
-      <c r="F1" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>deposito_padrao;</v>
-      </c>
-      <c r="G1" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>endereco_padrao;</v>
-      </c>
-      <c r="H1" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>quantidade;</v>
-      </c>
-      <c r="I1" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>quantidade_comprada;</v>
-      </c>
-      <c r="J1" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>quantidade_reservada;</v>
-      </c>
-      <c r="K1" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>grupo;</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A2" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="5">
+        <v>100001.0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="5">
+        <v>5000.0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>6000.0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>1500.0</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="5">
+        <v>4500.0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>450.0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>900.0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>675.0</v>
+      </c>
+      <c r="P2" s="5">
+        <v>25.0</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="U2" s="6">
+        <v>45721.0</v>
+      </c>
+      <c r="V2" s="6">
+        <v>45812.0</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" s="5">
+        <v>3.546789123012E12</v>
+      </c>
+      <c r="Y2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="3">
+      <c r="A3" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="5">
+        <v>100002.0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>15.0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="M3" s="5">
         <v>1.0</v>
       </c>
-      <c r="B3" s="3">
-        <v>100001.0</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="3">
-        <v>5000.0</v>
-      </c>
-      <c r="I3" s="3">
-        <v>6000.0</v>
-      </c>
-      <c r="J3" s="3">
-        <v>1500.0</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="N3" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>40.0</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="U3" s="6">
+        <v>45713.0</v>
+      </c>
+      <c r="V3" s="6">
+        <v>45809.0</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X3" s="5">
+        <v>7.891234560123E12</v>
+      </c>
+      <c r="Y3" s="3"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="3">
+      <c r="A4" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="5">
+        <v>100003.0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="5">
+        <v>25.0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>30.0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="5">
+        <v>22.0</v>
+      </c>
+      <c r="M4" s="5">
         <v>2.0</v>
       </c>
-      <c r="B4" s="3">
-        <v>100002.0</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="I4" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="J4" s="3">
+      <c r="N4" s="5">
         <v>4.0</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="O4" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>18.0</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="U4" s="6">
+        <v>45757.0</v>
+      </c>
+      <c r="V4" s="6">
+        <v>45815.0</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X4" s="5">
+        <v>1.234567890123E12</v>
+      </c>
+      <c r="Y4" s="3"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="3">
+      <c r="A5" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="5">
+        <v>100004.0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="5">
+        <v>30.0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>40.0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>12.0</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="5">
+        <v>28.0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="O5" s="5">
         <v>3.0</v>
       </c>
-      <c r="B5" s="3">
-        <v>100003.0</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="3">
-        <v>25.0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>30.0</v>
-      </c>
-      <c r="J5" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="P5" s="5">
+        <v>35.0</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="U5" s="6">
+        <v>45677.0</v>
+      </c>
+      <c r="V5" s="6">
+        <v>45818.0</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X5" s="5">
+        <v>4.567891230123E12</v>
+      </c>
+      <c r="Y5" s="3"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="B6" s="3">
-        <v>100004.0</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="3">
-        <v>30.0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>40.0</v>
-      </c>
-      <c r="J6" s="3">
-        <v>12.0</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="A6" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="5">
+        <v>100005.0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>50.0</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T6" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="U6" s="6">
+        <v>45731.0</v>
+      </c>
+      <c r="V6" s="6">
+        <v>45820.0</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X6" s="5">
+        <v>8.90123456789E12</v>
+      </c>
+      <c r="Y6" s="3"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="B7" s="3">
-        <v>100005.0</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="A7" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="5">
+        <v>100006.0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1500.0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>2000.0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>600.0</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="L7" s="5">
+        <v>1200.0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>120.0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>240.0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>180.0</v>
+      </c>
+      <c r="P7" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T7" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="U7" s="6">
+        <v>45778.0</v>
+      </c>
+      <c r="V7" s="6">
+        <v>45810.0</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X7" s="5">
+        <v>2.345678901234E12</v>
+      </c>
+      <c r="Y7" s="3"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="B8" s="3">
-        <v>100006.0</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="A8" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="5">
+        <v>100007.0</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="5">
+        <v>12.0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>15.0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" s="5">
+        <v>15.0</v>
+      </c>
+      <c r="M8" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="N8" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="O8" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="P8" s="5">
+        <v>22.0</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T8" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="U8" s="6">
+        <v>45767.0</v>
+      </c>
+      <c r="V8" s="6">
+        <v>45813.0</v>
+      </c>
+      <c r="W8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1500.0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>2000.0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>600.0</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="X8" s="5">
+        <v>5.678901234567E12</v>
+      </c>
+      <c r="Y8" s="3"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="3">
+      <c r="A9" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="5">
+        <v>100008.0</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="5">
+        <v>18.0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="J9" s="5">
         <v>7.0</v>
       </c>
-      <c r="B9" s="3">
-        <v>100007.0</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="3">
-        <v>12.0</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="5">
+        <v>18.0</v>
+      </c>
+      <c r="M9" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="N9" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="O9" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="P9" s="5">
         <v>15.0</v>
       </c>
-      <c r="J9" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="U9" s="6">
+        <v>45717.0</v>
+      </c>
+      <c r="V9" s="6">
+        <v>45816.0</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X9" s="5">
+        <v>9.012345678901E12</v>
+      </c>
+      <c r="Y9" s="3"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="3">
+      <c r="A10" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="5">
+        <v>100009.0</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="5">
         <v>8.0</v>
       </c>
-      <c r="B10" s="3">
-        <v>100008.0</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="3">
-        <v>18.0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="I10" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" s="5">
         <v>7.0</v>
       </c>
-      <c r="K10" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="M10" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="N10" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="O10" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="P10" s="5">
+        <v>28.0</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T10" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="U10" s="6">
+        <v>45698.0</v>
+      </c>
+      <c r="V10" s="6">
+        <v>45822.0</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X10" s="5">
+        <v>1.23456789012E11</v>
+      </c>
+      <c r="Y10" s="3"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="3">
-        <v>9.0</v>
-      </c>
-      <c r="B11" s="3">
-        <v>100009.0</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="I11" s="3">
+      <c r="A11" s="5">
         <v>10.0</v>
       </c>
-      <c r="J11" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>43</v>
+      <c r="B11" s="5">
+        <v>100010.0</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="5">
+        <v>200.0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>250.0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>80.0</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" s="5">
+        <v>180.0</v>
+      </c>
+      <c r="M11" s="5">
+        <v>18.0</v>
+      </c>
+      <c r="N11" s="5">
+        <v>36.0</v>
+      </c>
+      <c r="O11" s="5">
+        <v>27.0</v>
+      </c>
+      <c r="P11" s="5">
+        <v>12.0</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T11" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="U11" s="6">
+        <v>45797.0</v>
+      </c>
+      <c r="V11" s="6">
+        <v>45811.0</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X11" s="5">
+        <v>6.789012345678E12</v>
+      </c>
+      <c r="Y11" s="6">
+        <v>46164.0</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="B12" s="3">
-        <v>100010.0</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="3">
-        <v>200.0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>250.0</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="A12" s="5">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="5">
+        <v>100011.0</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>120.0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>40.0</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L12" s="5">
         <v>80.0</v>
       </c>
-      <c r="K12" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="M12" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="N12" s="5">
+        <v>16.0</v>
+      </c>
+      <c r="O12" s="5">
+        <v>12.0</v>
+      </c>
+      <c r="P12" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T12" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="U12" s="6">
+        <v>45748.0</v>
+      </c>
+      <c r="V12" s="6">
+        <v>45814.0</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X12" s="5">
+        <v>3.456789012345E12</v>
+      </c>
+      <c r="Y12" s="3"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="3">
-        <v>11.0</v>
-      </c>
-      <c r="B13" s="3">
-        <v>100011.0</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="I13" s="3">
-        <v>120.0</v>
-      </c>
-      <c r="J13" s="3">
-        <v>40.0</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="A13" s="5">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="5">
+        <v>100012.0</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="M13" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="N13" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="O13" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="P13" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T13" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="U13" s="6">
+        <v>45724.0</v>
+      </c>
+      <c r="V13" s="6">
+        <v>45817.0</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X13" s="5">
+        <v>7.890123456789E12</v>
+      </c>
+      <c r="Y13" s="3"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="3">
-        <v>12.0</v>
-      </c>
-      <c r="B14" s="3">
-        <v>100012.0</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>9.0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A14" s="5">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="5">
+        <v>100013.0</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" s="5">
+        <v>50.0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>60.0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L14" s="5">
+        <v>40.0</v>
+      </c>
+      <c r="M14" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="N14" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="O14" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="P14" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T14" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="U14" s="6">
+        <v>45782.0</v>
+      </c>
+      <c r="V14" s="6">
+        <v>45819.0</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X14" s="5">
+        <v>1.234567890123E12</v>
+      </c>
+      <c r="Y14" s="3"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="3">
-        <v>13.0</v>
-      </c>
-      <c r="B15" s="3">
-        <v>100013.0</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="4" t="s">
+      <c r="A15" s="5">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="5">
+        <v>100014.0</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="3">
-        <v>50.0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>60.0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="G15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>12.0</v>
+      </c>
+      <c r="J15" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="M15" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="N15" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="O15" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="P15" s="5">
+        <v>45.0</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T15" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="U15" s="6">
+        <v>45706.0</v>
+      </c>
+      <c r="V15" s="6">
+        <v>45821.0</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X15" s="5">
+        <v>4.567890123456E12</v>
+      </c>
+      <c r="Y15" s="3"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="3">
+      <c r="A16" s="5">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="5">
+        <v>100015.0</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>150.0</v>
+      </c>
+      <c r="J16" s="5">
+        <v>30.0</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L16" s="5">
+        <v>70.0</v>
+      </c>
+      <c r="M16" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="N16" s="5">
         <v>14.0</v>
       </c>
-      <c r="B16" s="3">
-        <v>100014.0</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="I16" s="3">
-        <v>12.0</v>
-      </c>
-      <c r="J16" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="O16" s="5">
+        <v>11.0</v>
+      </c>
+      <c r="P16" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T16" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="U16" s="6">
+        <v>45759.0</v>
+      </c>
+      <c r="V16" s="6">
+        <v>45822.0</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X16" s="5">
+        <v>8.90123456789E12</v>
+      </c>
+      <c r="Y16" s="3"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="B17" s="3">
-        <v>100015.0</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>150.0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>30.0</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="L17" s="5">
+        <v>35.0</v>
+      </c>
+      <c r="M17" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="N17" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="O17" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="P17" s="5">
+        <v>17.0</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T17" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="U17" s="6">
+        <v>45736.0</v>
+      </c>
+      <c r="V17" s="6">
+        <v>45815.0</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X17" s="5">
+        <v>2.345678901234E12</v>
+      </c>
+      <c r="Y17" s="3"/>
     </row>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -2102,7 +2898,6 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
@@ -2125,20 +2920,20 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>65</v>
+      <c r="A1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -3143,20 +3938,20 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>70</v>
+      <c r="A1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
